--- a/data/trans_dic/P79$ninguna_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79$ninguna_2023-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5205102007495055</v>
+        <v>0.5205102007495056</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5567083168440773</v>
+        <v>0.5567083168440771</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5404088056685964</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4641238621319408</v>
+        <v>0.4676675854036264</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5146541919605999</v>
+        <v>0.5183744599573523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5063938651238682</v>
+        <v>0.5114262037483521</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5747977848282203</v>
+        <v>0.5819659726479978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5963598193227175</v>
+        <v>0.5966067589386943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5722643684520612</v>
+        <v>0.5734825257832977</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7680858820971245</v>
+        <v>0.7680858820971246</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8000534475998905</v>
+        <v>0.8000534475998906</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.785259451451286</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.735999851593837</v>
+        <v>0.7380292651458871</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7795879775475826</v>
+        <v>0.7786285494275683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7668988314540763</v>
+        <v>0.76584193888357</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7969010013333336</v>
+        <v>0.7985187254822622</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8203915954794282</v>
+        <v>0.8212186292735378</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8035718270847471</v>
+        <v>0.8022576878348691</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9581395740880735</v>
+        <v>0.9581395740880736</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9484654614048841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9533123068496807</v>
+        <v>0.9533123068496809</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9426582426527461</v>
+        <v>0.9417988788395735</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9349526335327155</v>
+        <v>0.9341385744447108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9432483689108236</v>
+        <v>0.9433082212446253</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9694859281556687</v>
+        <v>0.9695434323623785</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9609858318829438</v>
+        <v>0.9603963481468263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9620702411809824</v>
+        <v>0.962757167787899</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.9931581209661688</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9889986294761814</v>
+        <v>0.9889986294761813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9911540052982458</v>
+        <v>0.9911540052982457</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9850638578551246</v>
+        <v>0.9843029079034927</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9800975488960806</v>
+        <v>0.9802397009040108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9855205767792042</v>
+        <v>0.9854274538948623</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9976204868439373</v>
+        <v>0.9976311098328136</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.994394733395402</v>
+        <v>0.9944376241809867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9949293665519952</v>
+        <v>0.994945569589306</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.858954289946673</v>
+        <v>0.8589542899466729</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.854734770088165</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8450875997976686</v>
+        <v>0.8445457276469565</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8441514989849432</v>
+        <v>0.8435161508291459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8472884432782483</v>
+        <v>0.8476899911845868</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8714732683276767</v>
+        <v>0.8709276800038094</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8659034776133588</v>
+        <v>0.8652344768179603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.864928874519064</v>
+        <v>0.8662033594574395</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>200828</v>
+        <v>202361</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>271865</v>
+        <v>273830</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>486620</v>
+        <v>491456</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>248717</v>
+        <v>251818</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>315026</v>
+        <v>315156</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>549918</v>
+        <v>551089</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>701656</v>
+        <v>703591</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>862754</v>
+        <v>861692</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1579824</v>
+        <v>1577647</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>759715</v>
+        <v>761257</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>907910</v>
+        <v>908825</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1655371</v>
+        <v>1652664</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>982714</v>
+        <v>981818</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>970744</v>
+        <v>969898</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1962686</v>
+        <v>1962810</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1010681</v>
+        <v>1010741</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>997773</v>
+        <v>997161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2001850</v>
+        <v>2003279</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>951816</v>
+        <v>951081</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>880557</v>
+        <v>880685</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1837686</v>
+        <v>1837513</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>963949</v>
+        <v>963959</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>893402</v>
+        <v>893441</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1855231</v>
+        <v>1855261</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2868886</v>
+        <v>2867047</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3015010</v>
+        <v>3012741</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5902572</v>
+        <v>5905370</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2958460</v>
+        <v>2956608</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3092701</v>
+        <v>3090311</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6025463</v>
+        <v>6034342</v>
       </c>
     </row>
     <row r="24">
